--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3a-Plxna1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3a</t>
+  </si>
+  <si>
+    <t>Plxna1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema3a</t>
-  </si>
-  <si>
-    <t>Plxna1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H2">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I2">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J2">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.502293333333333</v>
+        <v>6.407045</v>
       </c>
       <c r="N2">
-        <v>22.50688</v>
+        <v>19.221135</v>
       </c>
       <c r="O2">
-        <v>0.09119883294046149</v>
+        <v>0.07634036753849739</v>
       </c>
       <c r="P2">
-        <v>0.1003892655001884</v>
+        <v>0.08330376123310024</v>
       </c>
       <c r="Q2">
-        <v>8.045694442524445</v>
+        <v>5.016064852091667</v>
       </c>
       <c r="R2">
-        <v>72.41124998271999</v>
+        <v>45.14458366882501</v>
       </c>
       <c r="S2">
-        <v>0.02680838380739609</v>
+        <v>0.009580800184147281</v>
       </c>
       <c r="T2">
-        <v>0.03403357749937123</v>
+        <v>0.01360597094117377</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H3">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I3">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J3">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>56.858436</v>
       </c>
       <c r="O3">
-        <v>0.2303927957149068</v>
+        <v>0.225824016214658</v>
       </c>
       <c r="P3">
-        <v>0.2536103017179399</v>
+        <v>0.246422574766345</v>
       </c>
       <c r="Q3">
-        <v>20.325589443576</v>
+        <v>14.83812492678</v>
       </c>
       <c r="R3">
-        <v>182.930304992184</v>
+        <v>133.54312434102</v>
       </c>
       <c r="S3">
-        <v>0.06772519225127013</v>
+        <v>0.02834116268883842</v>
       </c>
       <c r="T3">
-        <v>0.08597797598330108</v>
+        <v>0.04024810334959868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H4">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I4">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J4">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.88691333333333</v>
+        <v>15.418902</v>
       </c>
       <c r="N4">
-        <v>47.66074</v>
+        <v>46.25670599999999</v>
       </c>
       <c r="O4">
-        <v>0.1931233411773987</v>
+        <v>0.1837172433969283</v>
       </c>
       <c r="P4">
-        <v>0.2125850709558787</v>
+        <v>0.2004750287667047</v>
       </c>
       <c r="Q4">
-        <v>17.03762364861778</v>
+        <v>12.07143267763</v>
       </c>
       <c r="R4">
-        <v>153.33861283756</v>
+        <v>108.64289409867</v>
       </c>
       <c r="S4">
-        <v>0.05676963712715913</v>
+        <v>0.02305671633661834</v>
       </c>
       <c r="T4">
-        <v>0.07206976215572228</v>
+        <v>0.03274350852176098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H5">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I5">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J5">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.593041</v>
+        <v>21.04656</v>
       </c>
       <c r="N5">
-        <v>45.186082</v>
+        <v>42.09312</v>
       </c>
       <c r="O5">
-        <v>0.2746438829072707</v>
+        <v>0.2507711629653042</v>
       </c>
       <c r="P5">
-        <v>0.2015471528177732</v>
+        <v>0.1824301852120718</v>
       </c>
       <c r="Q5">
-        <v>24.22948508368466</v>
+        <v>16.4773167464</v>
       </c>
       <c r="R5">
-        <v>145.376910502108</v>
+        <v>98.86390047840001</v>
       </c>
       <c r="S5">
-        <v>0.08073303556568961</v>
+        <v>0.03147205707524558</v>
       </c>
       <c r="T5">
-        <v>0.06832773017139397</v>
+        <v>0.02979625123819902</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H6">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I6">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J6">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.32798133333333</v>
+        <v>22.10203433333334</v>
       </c>
       <c r="N6">
-        <v>51.983944</v>
+        <v>66.30610300000001</v>
       </c>
       <c r="O6">
-        <v>0.2106411472599626</v>
+        <v>0.2633472098846121</v>
       </c>
       <c r="P6">
-        <v>0.2318682090082199</v>
+        <v>0.2873684500217782</v>
       </c>
       <c r="Q6">
-        <v>18.58307012528178</v>
+        <v>17.30364584284278</v>
       </c>
       <c r="R6">
-        <v>167.247631127536</v>
+        <v>155.732812585585</v>
       </c>
       <c r="S6">
-        <v>0.06191908974385545</v>
+        <v>0.03305036481105245</v>
       </c>
       <c r="T6">
-        <v>0.07860705645771313</v>
+        <v>0.04693577723898588</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>3.36251</v>
       </c>
       <c r="I7">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J7">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.502293333333333</v>
+        <v>6.407045</v>
       </c>
       <c r="N7">
-        <v>22.50688</v>
+        <v>19.221135</v>
       </c>
       <c r="O7">
-        <v>0.09119883294046149</v>
+        <v>0.07634036753849739</v>
       </c>
       <c r="P7">
-        <v>0.1003892655001884</v>
+        <v>0.08330376123310024</v>
       </c>
       <c r="Q7">
-        <v>8.408845452088888</v>
+        <v>7.181250960983333</v>
       </c>
       <c r="R7">
-        <v>75.6796090688</v>
+        <v>64.63125864885001</v>
       </c>
       <c r="S7">
-        <v>0.02801840883556412</v>
+        <v>0.01371635586025307</v>
       </c>
       <c r="T7">
-        <v>0.03556971935962669</v>
+        <v>0.01947899295115212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>3.36251</v>
       </c>
       <c r="I8">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J8">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>56.858436</v>
       </c>
       <c r="O8">
-        <v>0.2303927957149068</v>
+        <v>0.225824016214658</v>
       </c>
       <c r="P8">
-        <v>0.2536103017179399</v>
+        <v>0.246422574766345</v>
       </c>
       <c r="Q8">
         <v>21.24300662604</v>
@@ -948,10 +948,10 @@
         <v>191.18705963436</v>
       </c>
       <c r="S8">
-        <v>0.07078204111803844</v>
+        <v>0.04057463525610865</v>
       </c>
       <c r="T8">
-        <v>0.08985868373347594</v>
+        <v>0.05762121092524107</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>3.36251</v>
       </c>
       <c r="I9">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J9">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.88691333333333</v>
+        <v>15.418902</v>
       </c>
       <c r="N9">
-        <v>47.66074</v>
+        <v>46.25670599999999</v>
       </c>
       <c r="O9">
-        <v>0.1931233411773987</v>
+        <v>0.1837172433969283</v>
       </c>
       <c r="P9">
-        <v>0.2125850709558787</v>
+        <v>0.2004750287667047</v>
       </c>
       <c r="Q9">
-        <v>17.80663498415556</v>
+        <v>17.28207072134</v>
       </c>
       <c r="R9">
-        <v>160.2597148574</v>
+        <v>155.53863649206</v>
       </c>
       <c r="S9">
-        <v>0.05933199531545574</v>
+        <v>0.03300915582868041</v>
       </c>
       <c r="T9">
-        <v>0.07532270782410241</v>
+        <v>0.04687725517340759</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>3.36251</v>
       </c>
       <c r="I10">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J10">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.593041</v>
+        <v>21.04656</v>
       </c>
       <c r="N10">
-        <v>45.186082</v>
+        <v>42.09312</v>
       </c>
       <c r="O10">
-        <v>0.2746438829072707</v>
+        <v>0.2507711629653042</v>
       </c>
       <c r="P10">
-        <v>0.2015471528177732</v>
+        <v>0.1824301852120718</v>
       </c>
       <c r="Q10">
-        <v>25.32310876430333</v>
+        <v>23.5897561552</v>
       </c>
       <c r="R10">
-        <v>151.93865258582</v>
+        <v>141.5385369312</v>
       </c>
       <c r="S10">
-        <v>0.08437700732975817</v>
+        <v>0.04505698127516941</v>
       </c>
       <c r="T10">
-        <v>0.07141177523055524</v>
+        <v>0.04265781327543874</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>3.36251</v>
       </c>
       <c r="I11">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J11">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.32798133333333</v>
+        <v>22.10203433333334</v>
       </c>
       <c r="N11">
-        <v>51.983944</v>
+        <v>66.30610300000001</v>
       </c>
       <c r="O11">
-        <v>0.2106411472599626</v>
+        <v>0.2633472098846121</v>
       </c>
       <c r="P11">
-        <v>0.2318682090082199</v>
+        <v>0.2873684500217782</v>
       </c>
       <c r="Q11">
-        <v>19.42183683771556</v>
+        <v>24.77277048872556</v>
       </c>
       <c r="R11">
-        <v>174.79653153944</v>
+        <v>222.95493439853</v>
       </c>
       <c r="S11">
-        <v>0.06471387397440563</v>
+        <v>0.04731656608491608</v>
       </c>
       <c r="T11">
-        <v>0.0821550698846997</v>
+        <v>0.06719562153615623</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H12">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I12">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J12">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.502293333333333</v>
+        <v>6.407045</v>
       </c>
       <c r="N12">
-        <v>22.50688</v>
+        <v>19.221135</v>
       </c>
       <c r="O12">
-        <v>0.09119883294046149</v>
+        <v>0.07634036753849739</v>
       </c>
       <c r="P12">
-        <v>0.1003892655001884</v>
+        <v>0.08330376123310024</v>
       </c>
       <c r="Q12">
-        <v>10.91394247093333</v>
+        <v>27.77097775798</v>
       </c>
       <c r="R12">
-        <v>65.4836548256</v>
+        <v>166.62586654788</v>
       </c>
       <c r="S12">
-        <v>0.03636543255560414</v>
+        <v>0.05304321149409705</v>
       </c>
       <c r="T12">
-        <v>0.03077758003046446</v>
+        <v>0.05021879734077435</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H13">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I13">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J13">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>56.858436</v>
       </c>
       <c r="O13">
-        <v>0.2303927957149068</v>
+        <v>0.225824016214658</v>
       </c>
       <c r="P13">
-        <v>0.2536103017179399</v>
+        <v>0.246422574766345</v>
       </c>
       <c r="Q13">
-        <v>27.57155587497</v>
+        <v>82.14990225652799</v>
       </c>
       <c r="R13">
-        <v>165.42933524982</v>
+        <v>492.8994135391681</v>
       </c>
       <c r="S13">
-        <v>0.09186886941127041</v>
+        <v>0.1569082182697109</v>
       </c>
       <c r="T13">
-        <v>0.07775245011290065</v>
+        <v>0.1485532604915052</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H14">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I14">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J14">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.88691333333333</v>
+        <v>15.418902</v>
       </c>
       <c r="N14">
-        <v>47.66074</v>
+        <v>46.25670599999999</v>
       </c>
       <c r="O14">
-        <v>0.1931233411773987</v>
+        <v>0.1837172433969283</v>
       </c>
       <c r="P14">
-        <v>0.2125850709558787</v>
+        <v>0.2004750287667047</v>
       </c>
       <c r="Q14">
-        <v>23.11144745438333</v>
+        <v>66.832367260488</v>
       </c>
       <c r="R14">
-        <v>138.6686847263</v>
+        <v>400.994203562928</v>
       </c>
       <c r="S14">
-        <v>0.07700771613036476</v>
+        <v>0.1276513712316295</v>
       </c>
       <c r="T14">
-        <v>0.06517483719027954</v>
+        <v>0.1208542650715361</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H15">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I15">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J15">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>22.593041</v>
+        <v>21.04656</v>
       </c>
       <c r="N15">
-        <v>45.186082</v>
+        <v>42.09312</v>
       </c>
       <c r="O15">
-        <v>0.2746438829072707</v>
+        <v>0.2507711629653042</v>
       </c>
       <c r="P15">
-        <v>0.2015471528177732</v>
+        <v>0.1824301852120718</v>
       </c>
       <c r="Q15">
-        <v>32.8671699121475</v>
+        <v>91.22513571264001</v>
       </c>
       <c r="R15">
-        <v>131.46867964859</v>
+        <v>364.90054285056</v>
       </c>
       <c r="S15">
-        <v>0.1095139408987162</v>
+        <v>0.1742421246148892</v>
       </c>
       <c r="T15">
-        <v>0.06179080596769208</v>
+        <v>0.1099761206984341</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H16">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I16">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J16">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.32798133333333</v>
+        <v>22.10203433333334</v>
       </c>
       <c r="N16">
-        <v>51.983944</v>
+        <v>66.30610300000001</v>
       </c>
       <c r="O16">
-        <v>0.2106411472599626</v>
+        <v>0.2633472098846121</v>
       </c>
       <c r="P16">
-        <v>0.2318682090082199</v>
+        <v>0.2873684500217782</v>
       </c>
       <c r="Q16">
-        <v>25.20783752471333</v>
+        <v>95.80003010391069</v>
       </c>
       <c r="R16">
-        <v>151.24702514828</v>
+        <v>574.8001806234641</v>
       </c>
       <c r="S16">
-        <v>0.08399292169800089</v>
+        <v>0.1829802789886436</v>
       </c>
       <c r="T16">
-        <v>0.07108670756493939</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.000793</v>
-      </c>
-      <c r="I17">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J17">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>7.502293333333333</v>
-      </c>
-      <c r="N17">
-        <v>22.50688</v>
-      </c>
-      <c r="O17">
-        <v>0.09119883294046149</v>
-      </c>
-      <c r="P17">
-        <v>0.1003892655001884</v>
-      </c>
-      <c r="Q17">
-        <v>0.001983106204444445</v>
-      </c>
-      <c r="R17">
-        <v>0.01784795584</v>
-      </c>
-      <c r="S17">
-        <v>6.607741897154908E-06</v>
-      </c>
-      <c r="T17">
-        <v>8.388610725970765E-06</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.000793</v>
-      </c>
-      <c r="I18">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J18">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>18.952812</v>
-      </c>
-      <c r="N18">
-        <v>56.858436</v>
-      </c>
-      <c r="O18">
-        <v>0.2303927957149068</v>
-      </c>
-      <c r="P18">
-        <v>0.2536103017179399</v>
-      </c>
-      <c r="Q18">
-        <v>0.005009859971999999</v>
-      </c>
-      <c r="R18">
-        <v>0.045088739748</v>
-      </c>
-      <c r="S18">
-        <v>1.669293432781002E-05</v>
-      </c>
-      <c r="T18">
-        <v>2.119188826223458E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.000793</v>
-      </c>
-      <c r="I19">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J19">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>15.88691333333333</v>
-      </c>
-      <c r="N19">
-        <v>47.66074</v>
-      </c>
-      <c r="O19">
-        <v>0.1931233411773987</v>
-      </c>
-      <c r="P19">
-        <v>0.2125850709558787</v>
-      </c>
-      <c r="Q19">
-        <v>0.004199440757777778</v>
-      </c>
-      <c r="R19">
-        <v>0.03779496682</v>
-      </c>
-      <c r="S19">
-        <v>1.399260441906683E-05</v>
-      </c>
-      <c r="T19">
-        <v>1.776378577447003E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.000793</v>
-      </c>
-      <c r="I20">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J20">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>22.593041</v>
-      </c>
-      <c r="N20">
-        <v>45.186082</v>
-      </c>
-      <c r="O20">
-        <v>0.2746438829072707</v>
-      </c>
-      <c r="P20">
-        <v>0.2015471528177732</v>
-      </c>
-      <c r="Q20">
-        <v>0.005972093837666666</v>
-      </c>
-      <c r="R20">
-        <v>0.035832563026</v>
-      </c>
-      <c r="S20">
-        <v>1.989911310672629E-05</v>
-      </c>
-      <c r="T20">
-        <v>1.6841448131851E-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.000793</v>
-      </c>
-      <c r="I21">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J21">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>17.32798133333333</v>
-      </c>
-      <c r="N21">
-        <v>51.983944</v>
-      </c>
-      <c r="O21">
-        <v>0.2106411472599626</v>
-      </c>
-      <c r="P21">
-        <v>0.2318682090082199</v>
-      </c>
-      <c r="Q21">
-        <v>0.004580363065777778</v>
-      </c>
-      <c r="R21">
-        <v>0.041223267592</v>
-      </c>
-      <c r="S21">
-        <v>1.526184370059975E-05</v>
-      </c>
-      <c r="T21">
-        <v>1.937510086767529E-05</v>
+        <v>0.1732370512466361</v>
       </c>
     </row>
   </sheetData>
